--- a/files/TRAVIS COUNTY.xlsx
+++ b/files/TRAVIS COUNTY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F29C4D-C1AE-1745-A725-7F0003B2D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77161B-DBC0-8E47-8C26-D906834D9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="16140" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>STREET ADDRESS</t>
   </si>
@@ -31,30 +31,9 @@
     <t>13424 Harry S Truman</t>
   </si>
   <si>
-    <t>Manor, TX 78653</t>
-  </si>
-  <si>
-    <t>Del Valle, TX 78617</t>
-  </si>
-  <si>
-    <t>Austin, TX 78726</t>
-  </si>
-  <si>
-    <t>Leander, TX 78645</t>
-  </si>
-  <si>
-    <t>Austin, TX 78745</t>
-  </si>
-  <si>
-    <t>Austin, TX 78721</t>
-  </si>
-  <si>
     <t>16816 Jaron Dr</t>
   </si>
   <si>
-    <t>4709-4709A Gonzales St #A</t>
-  </si>
-  <si>
     <t>2547 Waymaker Way</t>
   </si>
   <si>
@@ -79,18 +58,9 @@
     <t>1321 Marina Grand Ter</t>
   </si>
   <si>
-    <t>CITY STATE, ZIP</t>
-  </si>
-  <si>
-    <t>Pflugerville, TX 78660</t>
-  </si>
-  <si>
     <t>6207 Aviary CV</t>
   </si>
   <si>
-    <t>Austin, TX 78744</t>
-  </si>
-  <si>
     <t>12809 Sexson Ridge Cv</t>
   </si>
   <si>
@@ -103,87 +73,85 @@
     <t>18001 Marshalls Point Dr</t>
   </si>
   <si>
-    <t>2326 Campden Dr, Austin</t>
-  </si>
-  <si>
     <t>4305 Leslie Ave, Austin</t>
   </si>
   <si>
     <t>10233 Twin Lake Loop</t>
   </si>
   <si>
-    <t>Dripping Springs, TX 78620</t>
-  </si>
-  <si>
     <t>3200 Rainbow Hollow Dr</t>
   </si>
   <si>
-    <t>Lago Vista, TX 78645</t>
-  </si>
-  <si>
     <t>5402 Spring Meadow Rd</t>
   </si>
   <si>
-    <t>5314 George St, Austin</t>
-  </si>
-  <si>
-    <t>2201 Lakeway Blvd APT 49</t>
-  </si>
-  <si>
-    <t>Lakeway, TX 78734</t>
-  </si>
-  <si>
-    <t>5304 Ankara Ct,</t>
-  </si>
-  <si>
-    <t>Austin, TX 78730</t>
-  </si>
-  <si>
-    <t>Austin, TX 78702</t>
-  </si>
-  <si>
-    <t>Austin, TX 78746</t>
-  </si>
-  <si>
-    <t>Austin, TX 78703</t>
-  </si>
-  <si>
-    <t>Austin, TX 78752</t>
-  </si>
-  <si>
-    <t>Austin, TX 78732</t>
-  </si>
-  <si>
-    <t>Leander, TX 78641</t>
-  </si>
-  <si>
     <t>5212 Pink Poppy Pass</t>
   </si>
   <si>
-    <t>Austin, TX 78735</t>
-  </si>
-  <si>
     <t>6903 Deatonhill Dr APT 19</t>
   </si>
   <si>
-    <t>17808 Maritime Point Dr UNIT 202</t>
+    <t>CITY STATE</t>
+  </si>
+  <si>
+    <t>Pflugerville, TX</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Manor, TX</t>
+  </si>
+  <si>
+    <t>Del Valle, TX</t>
+  </si>
+  <si>
+    <t>Leander, TX</t>
+  </si>
+  <si>
+    <t>Dripping Springs, TX</t>
+  </si>
+  <si>
+    <t>Lago Vista, TX</t>
+  </si>
+  <si>
+    <t>Lakeway, TX</t>
+  </si>
+  <si>
+    <t>2326 Campden Dr</t>
+  </si>
+  <si>
+    <t>5304 Ankara Ct</t>
+  </si>
+  <si>
+    <t>5314 George St</t>
+  </si>
+  <si>
+    <t>2201 Lakeway Blvd 49</t>
+  </si>
+  <si>
+    <t>4305 Leslie Ave</t>
+  </si>
+  <si>
+    <t>4709 Gonzales St #A</t>
+  </si>
+  <si>
+    <t>17808 Maritime Point Dr 202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="12"/>
@@ -212,10 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,257 +403,343 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>78660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>78744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>78653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>78617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>78653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>78726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>78645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>78745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>78721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>78620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>78645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>78744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>78744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>78721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>78734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>78730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>78653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>78702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>78746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>78703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>78752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>78660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>78645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>78732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>78617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>78641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>78645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>78735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>78745</v>
       </c>
     </row>
   </sheetData>

--- a/files/TRAVIS COUNTY.xlsx
+++ b/files/TRAVIS COUNTY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77161B-DBC0-8E47-8C26-D906834D9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F7911-2898-6B4D-B238-1DA75309A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>2547 Waymaker Way</t>
   </si>
   <si>
-    <t>1301 W 29th St</t>
-  </si>
-  <si>
     <t>1716 Shelbourne Dr</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>5212 Pink Poppy Pass</t>
   </si>
   <si>
-    <t>6903 Deatonhill Dr APT 19</t>
-  </si>
-  <si>
     <t>CITY STATE</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>17808 Maritime Point Dr 202</t>
+  </si>
+  <si>
+    <t>6903 Deatonhill Dr 19</t>
+  </si>
+  <si>
+    <t>1301 W 29 St</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>78660</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>78744</v>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>78653</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>78617</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>78653</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>78726</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>78645</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>78745</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>78721</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>78620</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>78645</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>78744</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>78744</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>78721</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>78734</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>78730</v>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>78653</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>78702</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>78746</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>78703</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>78752</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>78660</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>78645</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>78732</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>78617</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>78641</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>78645</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>78735</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>78745</v>

--- a/files/TRAVIS COUNTY.xlsx
+++ b/files/TRAVIS COUNTY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F7911-2898-6B4D-B238-1DA75309A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783E864-4EE2-CF45-AF78-283E6FBD56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>4305 Leslie Ave</t>
   </si>
   <si>
-    <t>4709 Gonzales St #A</t>
-  </si>
-  <si>
     <t>17808 Maritime Point Dr 202</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>1301 W 29 St</t>
+  </si>
+  <si>
+    <t>4709 Gonzales St</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>24</v>

--- a/files/TRAVIS COUNTY.xlsx
+++ b/files/TRAVIS COUNTY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783E864-4EE2-CF45-AF78-283E6FBD56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2FD8FA-2B22-E244-91D6-DACB2C74091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>STREET ADDRESS</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>18001 Marshalls Point Dr</t>
-  </si>
-  <si>
-    <t>4305 Leslie Ave, Austin</t>
   </si>
   <si>
     <t>10233 Twin Lake Loop</t>
@@ -402,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E51FCDC-64A8-1840-901B-8CC1A9B9C758}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -417,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -428,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>78660</v>
@@ -439,7 +436,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>78744</v>
@@ -450,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>78653</v>
@@ -461,7 +458,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>78617</v>
@@ -472,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>78653</v>
@@ -483,7 +480,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>78726</v>
@@ -494,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>78645</v>
@@ -502,10 +499,10 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>78745</v>
@@ -513,10 +510,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>78721</v>
@@ -524,10 +521,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>78620</v>
@@ -535,10 +532,10 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>78645</v>
@@ -546,10 +543,10 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>78744</v>
@@ -557,10 +554,10 @@
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>78744</v>
@@ -568,10 +565,10 @@
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>78721</v>
@@ -579,10 +576,10 @@
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>78734</v>
@@ -590,10 +587,10 @@
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>78730</v>
@@ -604,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>78653</v>
@@ -612,10 +609,10 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>78702</v>
@@ -626,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>78746</v>
@@ -634,10 +631,10 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>78703</v>
@@ -648,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>78752</v>
@@ -659,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>78660</v>
@@ -670,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>78645</v>
@@ -681,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>78732</v>
@@ -692,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <v>78617</v>
@@ -703,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>78641</v>
@@ -711,10 +708,10 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>78645</v>
@@ -722,10 +719,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>78735</v>
@@ -733,10 +730,10 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>78745</v>
